--- a/openbis/sourceTest/java/ch/ethz/sis/openbis/generic/server/xls/export/resources/export-sample-type-with-bare-sample-property.xlsx
+++ b/openbis/sourceTest/java/ch/ethz/sis/openbis/generic/server/xls/export/resources/export-sample-type-with-bare-sample-property.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="36">
   <si>
     <t xml:space="preserve">SAMPLE_TYPE</t>
   </si>
@@ -31,6 +31,9 @@
     <t xml:space="preserve">Code</t>
   </si>
   <si>
+    <t xml:space="preserve">Description</t>
+  </si>
+  <si>
     <t xml:space="preserve">Auto generate codes</t>
   </si>
   <si>
@@ -43,6 +46,12 @@
     <t xml:space="preserve">COURSE</t>
   </si>
   <si>
+    <t xml:space="preserve">Course</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FALSE</t>
+  </si>
+  <si>
     <t xml:space="preserve">date_range_validation.py</t>
   </si>
   <si>
@@ -64,9 +73,6 @@
     <t xml:space="preserve">Vocabulary code</t>
   </si>
   <si>
-    <t xml:space="preserve">Description</t>
-  </si>
-  <si>
     <t xml:space="preserve">Metadata</t>
   </si>
   <si>
@@ -74,6 +80,9 @@
   </si>
   <si>
     <t xml:space="preserve">$NAME</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TRUE</t>
   </si>
   <si>
     <t xml:space="preserve">General info</t>
@@ -250,7 +259,11 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -264,10 +277,6 @@
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
@@ -287,13 +296,13 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:K9"/>
+  <dimension ref="A1:K14"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D9" activeCellId="0" sqref="D9"/>
+      <selection pane="topLeft" activeCell="D2" activeCellId="0" sqref="D2:D3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.50390625" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="10.51953125" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" s="3" customFormat="true" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
@@ -309,7 +318,7 @@
       <c r="I1" s="2"/>
       <c r="J1" s="2"/>
     </row>
-    <row r="2" s="3" customFormat="true" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="2" s="3" customFormat="true" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="4" t="s">
         <v>1</v>
       </c>
@@ -319,30 +328,35 @@
       <c r="C2" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="D2" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="E2" s="1" t="s">
+      <c r="E2" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="F2" s="2"/>
+      <c r="F2" s="1" t="s">
+        <v>6</v>
+      </c>
       <c r="G2" s="2"/>
       <c r="H2" s="2"/>
       <c r="I2" s="2"/>
       <c r="J2" s="2"/>
     </row>
-    <row r="3" s="3" customFormat="true" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="3" s="3" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="5" t="n">
         <v>1</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="C3" s="7" t="b">
-        <v>0</v>
-      </c>
-      <c r="D3" s="3" t="s">
         <v>7</v>
+      </c>
+      <c r="C3" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="D3" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="4" s="3" customFormat="true" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -353,31 +367,31 @@
         <v>2</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="I4" s="2" t="s">
-        <v>14</v>
+        <v>3</v>
       </c>
       <c r="J4" s="2" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="K4" s="2" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="5" s="3" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -385,25 +399,25 @@
         <v>1</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="C5" s="8" t="b">
-        <v>1</v>
-      </c>
-      <c r="D5" s="8" t="b">
-        <v>1</v>
-      </c>
-      <c r="E5" s="9" t="s">
-        <v>18</v>
+        <v>19</v>
+      </c>
+      <c r="C5" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="D5" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="E5" s="10" t="s">
+        <v>21</v>
       </c>
       <c r="F5" s="6" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="G5" s="6" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="I5" s="6" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
     </row>
     <row r="6" s="3" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -411,25 +425,25 @@
         <v>1</v>
       </c>
       <c r="B6" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="C6" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="D6" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="E6" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="C6" s="8" t="b">
-        <v>1</v>
-      </c>
-      <c r="D6" s="8" t="b">
-        <v>1</v>
-      </c>
-      <c r="E6" s="9" t="s">
-        <v>18</v>
-      </c>
       <c r="F6" s="6" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="G6" s="6" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="I6" s="6" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
     </row>
     <row r="7" s="3" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -437,25 +451,25 @@
         <v>1</v>
       </c>
       <c r="B7" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="C7" s="8" t="b">
-        <v>1</v>
-      </c>
-      <c r="D7" s="8" t="b">
-        <v>1</v>
-      </c>
-      <c r="E7" s="9" t="s">
-        <v>18</v>
+        <v>28</v>
+      </c>
+      <c r="C7" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="D7" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="E7" s="10" t="s">
+        <v>21</v>
       </c>
       <c r="F7" s="6" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="G7" s="6" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="I7" s="6" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
     </row>
     <row r="8" s="3" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -463,53 +477,55 @@
         <v>1</v>
       </c>
       <c r="B8" s="6" t="s">
-        <v>28</v>
-      </c>
-      <c r="C8" s="8" t="b">
-        <v>1</v>
-      </c>
-      <c r="D8" s="8" t="b">
-        <v>1</v>
-      </c>
-      <c r="E8" s="9" t="s">
-        <v>18</v>
+        <v>31</v>
+      </c>
+      <c r="C8" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="D8" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="E8" s="10" t="s">
+        <v>21</v>
       </c>
       <c r="F8" s="6" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="G8" s="6" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="I8" s="6" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="10" t="n">
-        <v>1</v>
-      </c>
-      <c r="B9" s="11" t="s">
-        <v>30</v>
-      </c>
-      <c r="C9" s="8" t="b">
-        <v>0</v>
-      </c>
-      <c r="D9" s="8" t="b">
-        <v>1</v>
-      </c>
-      <c r="E9" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="F9" s="11" t="s">
-        <v>31</v>
-      </c>
-      <c r="G9" s="11" t="s">
-        <v>32</v>
-      </c>
-      <c r="I9" s="11" t="s">
-        <v>31</v>
-      </c>
-    </row>
+      <c r="A9" s="11" t="n">
+        <v>1</v>
+      </c>
+      <c r="B9" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="C9" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="D9" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="E9" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="F9" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="G9" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="I9" s="7" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>
